--- a/person/魏欣欣/userstory.xlsx
+++ b/person/魏欣欣/userstory.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\three up\软件工程\xueliwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65856406-B5BF-4D60-97D8-599854D844A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A0E4C7-BCC9-4C05-AFB3-49629CCB71D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>PROJECT BACKLOG</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>能够进行搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>能够看见最新电影推荐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,6 +223,42 @@
   </si>
   <si>
     <t>能够实现定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEVERITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想跟着电影去旅游的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热爱电影，对电影中的地点感兴趣，因此想去旅游的人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户输入电影名字，能够得到相关电影信息。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -301,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -320,11 +353,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,79 +653,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:L4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="46.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.75" style="1" customWidth="1"/>
     <col min="7" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="41.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -769,7 +814,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -798,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -827,7 +872,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -856,7 +901,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -885,7 +930,7 @@
         <v>4</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -914,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.15">
@@ -943,7 +988,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -972,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -992,7 +1037,7 @@
         <v>31</v>
       </c>
       <c r="F15" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G15" s="1">
         <v>4</v>
@@ -1001,7 +1046,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -1021,7 +1066,7 @@
         <v>34</v>
       </c>
       <c r="F16" s="1">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="G16" s="1">
         <v>3</v>
@@ -1030,7 +1075,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1050,7 +1095,7 @@
         <v>36</v>
       </c>
       <c r="F17" s="1">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G17" s="1">
         <v>3</v>
@@ -1059,7 +1104,7 @@
         <v>3</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1081,4 +1126,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CFB4CA-6355-436E-A0E6-A355AF8EEE98}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="60.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>